--- a/DOCUMENTATION/Gantt Chart.xlsx
+++ b/DOCUMENTATION/Gantt Chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\2020 HSC\Software Design and Development\Major Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\2020 HSC\Software Design and Development\Major Work\Doctor Booking System\Doctor-Booking-System\DOCUMENTATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AFEA0B-65F4-401F-B6E7-22A3A89181B7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8FA4E5-F41D-4BF8-9B0E-5C0224D599D5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17253" windowHeight="6208" xr2:uid="{AEB6F55C-11C6-4034-8A40-FF50C03E6BBF}"/>
   </bookViews>
@@ -139,7 +139,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,6 +149,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -180,12 +198,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -195,9 +209,20 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,292 +539,292 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC2D3FA-E9BF-47C3-8DCD-AB7921CE3253}">
   <dimension ref="A1:AQ137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AI14" sqref="AI14"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.75" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="43" width="14.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="44" max="16384" width="8.875" style="3"/>
+    <col min="1" max="1" width="14.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="43" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="10">
         <v>43752</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="10">
         <v>43759</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="10">
         <v>43766</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="10">
         <v>43773</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="10">
         <v>43780</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="10">
         <v>43787</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="10">
         <v>43794</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="10">
         <v>43801</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="10">
         <v>43808</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="10">
         <v>43815</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="10">
         <v>43822</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="10">
         <v>43829</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1" s="10">
         <v>43836</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="10">
         <v>43843</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q1" s="10">
         <v>43850</v>
       </c>
-      <c r="R1" s="2">
+      <c r="R1" s="10">
         <v>43857</v>
       </c>
-      <c r="S1" s="2">
+      <c r="S1" s="10">
         <v>43864</v>
       </c>
-      <c r="T1" s="2">
+      <c r="T1" s="10">
         <v>43871</v>
       </c>
-      <c r="U1" s="2">
+      <c r="U1" s="10">
         <v>43878</v>
       </c>
-      <c r="V1" s="2">
+      <c r="V1" s="10">
         <v>43885</v>
       </c>
-      <c r="W1" s="2">
+      <c r="W1" s="10">
         <v>43892</v>
       </c>
-      <c r="X1" s="2">
+      <c r="X1" s="10">
         <v>43899</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Y1" s="10">
         <v>43906</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="Z1" s="10">
         <v>43913</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AA1" s="10">
         <v>43920</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AB1" s="10">
         <v>43927</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AC1" s="10">
         <v>43934</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AD1" s="10">
         <v>43941</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AE1" s="10">
         <v>43948</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AF1" s="10">
         <v>43955</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AG1" s="10">
         <v>43962</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="AH1" s="10">
         <v>43969</v>
       </c>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="10"/>
     </row>
     <row r="2" spans="1:43" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:43" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:43" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:43" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:43" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="7"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:43" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:43" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="7"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:43" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
     </row>
     <row r="10" spans="1:43" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:43" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
     </row>
     <row r="12" spans="1:43" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
     </row>
     <row r="13" spans="1:43" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
     </row>
     <row r="14" spans="1:43" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
     </row>
     <row r="15" spans="1:43" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="7"/>
-      <c r="AH15" s="7"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
     </row>
     <row r="16" spans="1:43" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
